--- a/1.xlsx
+++ b/1.xlsx
@@ -5,40 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Version 2.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7252B2F8-C193-40F6-AF75-9DABB5D8153F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705F4949-1EEA-42AF-8C6A-F1E5FE47E52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B24 Exit" sheetId="1" r:id="rId1"/>
-    <sheet name="B24 Continue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
-    <t>-</t>
+    <t>B24closeBTN_1_t2_c.img</t>
   </si>
   <si>
-    <t>B24startBTN_1_t2_c.img</t>
-  </si>
-  <si>
-    <t>B24playBTN_1_t0_c.img</t>
+    <t>B24pauseBTN_1_t0_c.img</t>
   </si>
   <si>
     <t>B24icon_1_t0_c.img</t>
   </si>
   <si>
-    <t>B24closeBTN_1_t2_c.img</t>
+    <t>-</t>
   </si>
   <si>
-    <t>B24pauseBTN_1_t0_c.img</t>
+    <t>B24close_1_t0_c.img</t>
   </si>
 </sst>
 </file>
@@ -93,10 +89,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -109,19 +105,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,17 +144,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2162175" cy="285750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+        <xdr:cNvPr id="9" name="Image 8" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -169,7 +168,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="400050"/>
+          <a:off x="190500" y="171450"/>
           <a:ext cx="2162175" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -181,18 +180,129 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="247650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="1047750"/>
+          <a:ext cx="276225" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="219075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+        <xdr:cNvPr id="11" name="Image 10" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="247650"/>
+          <a:ext cx="914400" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2162175" cy="285750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="1000125"/>
+          <a:ext cx="2162175" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="247650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -206,30 +316,67 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3533775" y="457200"/>
-          <a:ext cx="914400" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+          <a:off x="3838575" y="1800225"/>
+          <a:ext cx="276225" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="276225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="247650"/>
+          <a:ext cx="304800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2162175" cy="285750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+        <xdr:cNvPr id="15" name="Image 14" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -243,7 +390,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2933700" y="1209675"/>
+          <a:off x="5743575" y="1019175"/>
           <a:ext cx="2162175" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -256,69 +403,32 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="276225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="333375"/>
-          <a:ext cx="304800" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2162175" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5629275" y="1209675"/>
-          <a:ext cx="2162175" cy="285750"/>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="247650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="1809750"/>
+          <a:ext cx="276225" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -330,244 +440,54 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="219075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9048750" y="1238250"/>
-          <a:ext cx="914400" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2162175" cy="285750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8343900" y="1952625"/>
-          <a:ext cx="2162175" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2295525" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171450" y="257175"/>
-          <a:ext cx="2295525" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="990600" cy="257175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3705225" y="276225"/>
-          <a:ext cx="990600" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2295525" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="933450"/>
-          <a:ext cx="2295525" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="276225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7143750" y="295275"/>
-          <a:ext cx="304800" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2295525" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+    <xdr:ext cx="914400" cy="219075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="1076325"/>
+          <a:ext cx="914400" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2162175" cy="285750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,8 +501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="942975"/>
-          <a:ext cx="2295525" cy="314325"/>
+          <a:off x="8534400" y="1790700"/>
+          <a:ext cx="2162175" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,17 +514,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="990600" cy="257175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="247650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -618,45 +538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="933450"/>
-          <a:ext cx="990600" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2295525" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9001125" y="1600200"/>
-          <a:ext cx="2295525" cy="314325"/>
+          <a:off x="9324975" y="2638425"/>
+          <a:ext cx="276225" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,98 +848,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="40.7109375" style="1"/>
+    <col min="1" max="1" width="40.7109375" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="40.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.140625" defaultRowHeight="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
+    <row r="4" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
